--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lipc-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lipc-Lrp1.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4981126666666666</v>
+        <v>0.5750149999999999</v>
       </c>
       <c r="H2">
-        <v>1.494338</v>
+        <v>1.725045</v>
       </c>
       <c r="I2">
-        <v>0.16401224128229</v>
+        <v>0.1694152801328888</v>
       </c>
       <c r="J2">
-        <v>0.16401224128229</v>
+        <v>0.1694152801328888</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N2">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O2">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P2">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q2">
-        <v>0.8712244577459999</v>
+        <v>5.27446769122</v>
       </c>
       <c r="R2">
-        <v>7.841020119714</v>
+        <v>47.47020922098</v>
       </c>
       <c r="S2">
-        <v>0.0005977792562722799</v>
+        <v>0.002449450767196844</v>
       </c>
       <c r="T2">
-        <v>0.0005977792562722801</v>
+        <v>0.002449450767196844</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4981126666666666</v>
+        <v>0.5750149999999999</v>
       </c>
       <c r="H3">
-        <v>1.494338</v>
+        <v>1.725045</v>
       </c>
       <c r="I3">
-        <v>0.16401224128229</v>
+        <v>0.1694152801328888</v>
       </c>
       <c r="J3">
-        <v>0.16401224128229</v>
+        <v>0.1694152801328888</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P3">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q3">
-        <v>71.2478208990089</v>
+        <v>82.24758869996667</v>
       </c>
       <c r="R3">
-        <v>641.23038809108</v>
+        <v>740.2282982997</v>
       </c>
       <c r="S3">
-        <v>0.0488857595873957</v>
+        <v>0.03819559262379807</v>
       </c>
       <c r="T3">
-        <v>0.04888575958739572</v>
+        <v>0.03819559262379808</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4981126666666666</v>
+        <v>0.5750149999999999</v>
       </c>
       <c r="H4">
-        <v>1.494338</v>
+        <v>1.725045</v>
       </c>
       <c r="I4">
-        <v>0.16401224128229</v>
+        <v>0.1694152801328888</v>
       </c>
       <c r="J4">
-        <v>0.16401224128229</v>
+        <v>0.1694152801328888</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N4">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q4">
-        <v>66.15175905148533</v>
+        <v>97.31364660897833</v>
       </c>
       <c r="R4">
-        <v>595.3658314633681</v>
+        <v>875.822819480805</v>
       </c>
       <c r="S4">
-        <v>0.04538916346449587</v>
+        <v>0.04519223555807772</v>
       </c>
       <c r="T4">
-        <v>0.04538916346449588</v>
+        <v>0.04519223555807773</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4981126666666666</v>
+        <v>0.5750149999999999</v>
       </c>
       <c r="H5">
-        <v>1.494338</v>
+        <v>1.725045</v>
       </c>
       <c r="I5">
-        <v>0.16401224128229</v>
+        <v>0.1694152801328888</v>
       </c>
       <c r="J5">
-        <v>0.16401224128229</v>
+        <v>0.1694152801328888</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N5">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q5">
-        <v>11.45794354318578</v>
+        <v>9.286673763068332</v>
       </c>
       <c r="R5">
-        <v>103.121491888672</v>
+        <v>83.580063867615</v>
       </c>
       <c r="S5">
-        <v>0.007861717963446157</v>
+        <v>0.004312710116988702</v>
       </c>
       <c r="T5">
-        <v>0.00786171796344616</v>
+        <v>0.004312710116988702</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4981126666666666</v>
+        <v>0.5750149999999999</v>
       </c>
       <c r="H6">
-        <v>1.494338</v>
+        <v>1.725045</v>
       </c>
       <c r="I6">
-        <v>0.16401224128229</v>
+        <v>0.1694152801328888</v>
       </c>
       <c r="J6">
-        <v>0.16401224128229</v>
+        <v>0.1694152801328888</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N6">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q6">
-        <v>26.69210528026777</v>
+        <v>31.478990894645</v>
       </c>
       <c r="R6">
-        <v>240.22894752241</v>
+        <v>283.310918051805</v>
       </c>
       <c r="S6">
-        <v>0.01831443860524831</v>
+        <v>0.01461877158254728</v>
       </c>
       <c r="T6">
-        <v>0.01831443860524832</v>
+        <v>0.01461877158254728</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4981126666666666</v>
+        <v>0.5750149999999999</v>
       </c>
       <c r="H7">
-        <v>1.494338</v>
+        <v>1.725045</v>
       </c>
       <c r="I7">
-        <v>0.16401224128229</v>
+        <v>0.1694152801328888</v>
       </c>
       <c r="J7">
-        <v>0.16401224128229</v>
+        <v>0.1694152801328888</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N7">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q7">
-        <v>62.61634064139734</v>
+        <v>139.2050752503483</v>
       </c>
       <c r="R7">
-        <v>563.547065772576</v>
+        <v>1252.845677253135</v>
       </c>
       <c r="S7">
-        <v>0.04296338240543167</v>
+        <v>0.0646465194842802</v>
       </c>
       <c r="T7">
-        <v>0.04296338240543168</v>
+        <v>0.06464651948428021</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.857501</v>
       </c>
       <c r="I8">
-        <v>0.09411569598832724</v>
+        <v>0.08421448259566115</v>
       </c>
       <c r="J8">
-        <v>0.09411569598832725</v>
+        <v>0.08421448259566117</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N8">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O8">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P8">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q8">
-        <v>0.4999376605169999</v>
+        <v>2.621880194249333</v>
       </c>
       <c r="R8">
-        <v>4.499438944653</v>
+        <v>23.596921748244</v>
       </c>
       <c r="S8">
-        <v>0.0003430256809588836</v>
+        <v>0.001217595182921061</v>
       </c>
       <c r="T8">
-        <v>0.0003430256809588837</v>
+        <v>0.001217595182921061</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.857501</v>
       </c>
       <c r="I9">
-        <v>0.09411569598832724</v>
+        <v>0.08421448259566115</v>
       </c>
       <c r="J9">
-        <v>0.09411569598832725</v>
+        <v>0.08421448259566117</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P9">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q9">
         <v>40.88437667296223</v>
@@ -1013,10 +1013,10 @@
         <v>367.95939005666</v>
       </c>
       <c r="S9">
-        <v>0.02805227982688749</v>
+        <v>0.01898661128869071</v>
       </c>
       <c r="T9">
-        <v>0.0280522798268875</v>
+        <v>0.01898661128869071</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.857501</v>
       </c>
       <c r="I10">
-        <v>0.09411569598832724</v>
+        <v>0.08421448259566115</v>
       </c>
       <c r="J10">
-        <v>0.09411569598832725</v>
+        <v>0.08421448259566117</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N10">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q10">
-        <v>37.96008636493733</v>
+        <v>48.37354925862545</v>
       </c>
       <c r="R10">
-        <v>341.640777284436</v>
+        <v>435.361943327629</v>
       </c>
       <c r="S10">
-        <v>0.02604581631462806</v>
+        <v>0.02246456595815599</v>
       </c>
       <c r="T10">
-        <v>0.02604581631462807</v>
+        <v>0.022464565958156</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.857501</v>
       </c>
       <c r="I11">
-        <v>0.09411569598832724</v>
+        <v>0.08421448259566115</v>
       </c>
       <c r="J11">
-        <v>0.09411569598832725</v>
+        <v>0.08421448259566117</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N11">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q11">
-        <v>6.574950276460444</v>
+        <v>4.616303944827444</v>
       </c>
       <c r="R11">
-        <v>59.17455248814399</v>
+        <v>41.546735503447</v>
       </c>
       <c r="S11">
-        <v>0.00451131605792869</v>
+        <v>0.002143801024337295</v>
       </c>
       <c r="T11">
-        <v>0.004511316057928692</v>
+        <v>0.002143801024337295</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.857501</v>
       </c>
       <c r="I12">
-        <v>0.09411569598832724</v>
+        <v>0.08421448259566115</v>
       </c>
       <c r="J12">
-        <v>0.09411569598832725</v>
+        <v>0.08421448259566117</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N12">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q12">
-        <v>15.31682053854944</v>
+        <v>15.64786203904767</v>
       </c>
       <c r="R12">
-        <v>137.851384846945</v>
+        <v>140.830758351429</v>
       </c>
       <c r="S12">
-        <v>0.01050943589632267</v>
+        <v>0.007266831445443958</v>
       </c>
       <c r="T12">
-        <v>0.01050943589632268</v>
+        <v>0.007266831445443959</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.857501</v>
       </c>
       <c r="I13">
-        <v>0.09411569598832724</v>
+        <v>0.08421448259566115</v>
       </c>
       <c r="J13">
-        <v>0.09411569598832725</v>
+        <v>0.08421448259566117</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N13">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q13">
-        <v>35.93134532906134</v>
+        <v>69.19732020454478</v>
       </c>
       <c r="R13">
-        <v>323.382107961552</v>
+        <v>622.775881840903</v>
       </c>
       <c r="S13">
-        <v>0.02465382221160143</v>
+        <v>0.03213507769611214</v>
       </c>
       <c r="T13">
-        <v>0.02465382221160143</v>
+        <v>0.03213507769611215</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3440973333333333</v>
+        <v>0.4723386666666667</v>
       </c>
       <c r="H14">
-        <v>1.032292</v>
+        <v>1.417016</v>
       </c>
       <c r="I14">
-        <v>0.1133000195255543</v>
+        <v>0.1391640001233508</v>
       </c>
       <c r="J14">
-        <v>0.1133000195255543</v>
+        <v>0.1391640001233508</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N14">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O14">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P14">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q14">
-        <v>0.6018437849639999</v>
+        <v>4.332643559989334</v>
       </c>
       <c r="R14">
-        <v>5.416594064676</v>
+        <v>38.993792039904</v>
       </c>
       <c r="S14">
-        <v>0.000412947234170465</v>
+        <v>0.00201206978851578</v>
       </c>
       <c r="T14">
-        <v>0.0004129472341704652</v>
+        <v>0.00201206978851578</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3440973333333333</v>
+        <v>0.4723386666666667</v>
       </c>
       <c r="H15">
-        <v>1.032292</v>
+        <v>1.417016</v>
       </c>
       <c r="I15">
-        <v>0.1133000195255543</v>
+        <v>0.1391640001233508</v>
       </c>
       <c r="J15">
-        <v>0.1133000195255543</v>
+        <v>0.1391640001233508</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P15">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q15">
-        <v>49.21815247385778</v>
+        <v>67.56122254739557</v>
       </c>
       <c r="R15">
-        <v>442.96337226472</v>
+        <v>608.05100292656</v>
       </c>
       <c r="S15">
-        <v>0.03377039099319691</v>
+        <v>0.03137527767530925</v>
       </c>
       <c r="T15">
-        <v>0.03377039099319692</v>
+        <v>0.03137527767530925</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3440973333333333</v>
+        <v>0.4723386666666667</v>
       </c>
       <c r="H16">
-        <v>1.032292</v>
+        <v>1.417016</v>
       </c>
       <c r="I16">
-        <v>0.1133000195255543</v>
+        <v>0.1391640001233508</v>
       </c>
       <c r="J16">
-        <v>0.1133000195255543</v>
+        <v>0.1391640001233508</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N16">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q16">
-        <v>45.69778166303466</v>
+        <v>79.93704179500712</v>
       </c>
       <c r="R16">
-        <v>411.280034967312</v>
+        <v>719.4333761550641</v>
       </c>
       <c r="S16">
-        <v>0.03135493464737654</v>
+        <v>0.03712257991041687</v>
       </c>
       <c r="T16">
-        <v>0.03135493464737655</v>
+        <v>0.03712257991041687</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3440973333333333</v>
+        <v>0.4723386666666667</v>
       </c>
       <c r="H17">
-        <v>1.032292</v>
+        <v>1.417016</v>
       </c>
       <c r="I17">
-        <v>0.1133000195255543</v>
+        <v>0.1391640001233508</v>
       </c>
       <c r="J17">
-        <v>0.1133000195255543</v>
+        <v>0.1391640001233508</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N17">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q17">
-        <v>7.915172776227555</v>
+        <v>7.628418568239112</v>
       </c>
       <c r="R17">
-        <v>71.23655498604801</v>
+        <v>68.655767114152</v>
       </c>
       <c r="S17">
-        <v>0.00543089218096693</v>
+        <v>0.003542620186218251</v>
       </c>
       <c r="T17">
-        <v>0.005430892180966932</v>
+        <v>0.003542620186218251</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3440973333333333</v>
+        <v>0.4723386666666667</v>
       </c>
       <c r="H18">
-        <v>1.032292</v>
+        <v>1.417016</v>
       </c>
       <c r="I18">
-        <v>0.1133000195255543</v>
+        <v>0.1391640001233508</v>
       </c>
       <c r="J18">
-        <v>0.1133000195255543</v>
+        <v>0.1391640001233508</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N18">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q18">
-        <v>18.43896544421555</v>
+        <v>25.85801168176267</v>
       </c>
       <c r="R18">
-        <v>165.95068899794</v>
+        <v>232.722105135864</v>
       </c>
       <c r="S18">
-        <v>0.01265165475059122</v>
+        <v>0.01200840165492194</v>
       </c>
       <c r="T18">
-        <v>0.01265165475059123</v>
+        <v>0.01200840165492194</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3440973333333333</v>
+        <v>0.4723386666666667</v>
       </c>
       <c r="H19">
-        <v>1.032292</v>
+        <v>1.417016</v>
       </c>
       <c r="I19">
-        <v>0.1133000195255543</v>
+        <v>0.1391640001233508</v>
       </c>
       <c r="J19">
-        <v>0.1133000195255543</v>
+        <v>0.1391640001233508</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N19">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q19">
-        <v>43.25550679524267</v>
+        <v>114.3482163717165</v>
       </c>
       <c r="R19">
-        <v>389.2995611571841</v>
+        <v>1029.133947345448</v>
       </c>
       <c r="S19">
-        <v>0.02967919971925218</v>
+        <v>0.05310305090796867</v>
       </c>
       <c r="T19">
-        <v>0.02967919971925219</v>
+        <v>0.05310305090796867</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.3089183333333334</v>
+        <v>0.148304</v>
       </c>
       <c r="H20">
-        <v>0.9267550000000001</v>
+        <v>0.444912</v>
       </c>
       <c r="I20">
-        <v>0.1017167231707744</v>
+        <v>0.04369444919667825</v>
       </c>
       <c r="J20">
-        <v>0.1017167231707744</v>
+        <v>0.04369444919667825</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N20">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O20">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P20">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q20">
-        <v>0.540313919835</v>
+        <v>1.360355219392</v>
       </c>
       <c r="R20">
-        <v>4.862825278515</v>
+        <v>12.243196974528</v>
       </c>
       <c r="S20">
-        <v>0.000370729322714551</v>
+        <v>0.0006317458615485872</v>
       </c>
       <c r="T20">
-        <v>0.0003707293227145512</v>
+        <v>0.0006317458615485871</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.3089183333333334</v>
+        <v>0.148304</v>
       </c>
       <c r="H21">
-        <v>0.9267550000000001</v>
+        <v>0.444912</v>
       </c>
       <c r="I21">
-        <v>0.1017167231707744</v>
+        <v>0.04369444919667825</v>
       </c>
       <c r="J21">
-        <v>0.1017167231707744</v>
+        <v>0.04369444919667825</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P21">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q21">
-        <v>44.18630474314445</v>
+        <v>21.21274470154667</v>
       </c>
       <c r="R21">
-        <v>397.6767426883001</v>
+        <v>190.91470231392</v>
       </c>
       <c r="S21">
-        <v>0.03031785454590388</v>
+        <v>0.0098511502630014</v>
       </c>
       <c r="T21">
-        <v>0.03031785454590389</v>
+        <v>0.0098511502630014</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.3089183333333334</v>
+        <v>0.148304</v>
       </c>
       <c r="H22">
-        <v>0.9267550000000001</v>
+        <v>0.444912</v>
       </c>
       <c r="I22">
-        <v>0.1017167231707744</v>
+        <v>0.04369444919667825</v>
       </c>
       <c r="J22">
-        <v>0.1017167231707744</v>
+        <v>0.04369444919667825</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N22">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q22">
-        <v>41.02584118168667</v>
+        <v>25.09848099040533</v>
       </c>
       <c r="R22">
-        <v>369.2325706351801</v>
+        <v>225.886328913648</v>
       </c>
       <c r="S22">
-        <v>0.02814934384760267</v>
+        <v>0.01165567733399157</v>
       </c>
       <c r="T22">
-        <v>0.02814934384760267</v>
+        <v>0.01165567733399157</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.3089183333333334</v>
+        <v>0.148304</v>
       </c>
       <c r="H23">
-        <v>0.9267550000000001</v>
+        <v>0.444912</v>
       </c>
       <c r="I23">
-        <v>0.1017167231707744</v>
+        <v>0.04369444919667825</v>
       </c>
       <c r="J23">
-        <v>0.1017167231707744</v>
+        <v>0.04369444919667825</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N23">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q23">
-        <v>7.105960276968889</v>
+        <v>2.395156414629333</v>
       </c>
       <c r="R23">
-        <v>63.95364249272001</v>
+        <v>21.556407731664</v>
       </c>
       <c r="S23">
-        <v>0.004875661618197184</v>
+        <v>0.001112305176716942</v>
       </c>
       <c r="T23">
-        <v>0.004875661618197186</v>
+        <v>0.001112305176716942</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.3089183333333334</v>
+        <v>0.148304</v>
       </c>
       <c r="H24">
-        <v>0.9267550000000001</v>
+        <v>0.444912</v>
       </c>
       <c r="I24">
-        <v>0.1017167231707744</v>
+        <v>0.04369444919667825</v>
       </c>
       <c r="J24">
-        <v>0.1017167231707744</v>
+        <v>0.04369444919667825</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N24">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q24">
-        <v>16.55384660566389</v>
+        <v>8.118849535472</v>
       </c>
       <c r="R24">
-        <v>148.984619450975</v>
+        <v>73.06964581924801</v>
       </c>
       <c r="S24">
-        <v>0.01135820513806575</v>
+        <v>0.003770375208956447</v>
       </c>
       <c r="T24">
-        <v>0.01135820513806575</v>
+        <v>0.003770375208956447</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.3089183333333334</v>
+        <v>0.148304</v>
       </c>
       <c r="H25">
-        <v>0.9267550000000001</v>
+        <v>0.444912</v>
       </c>
       <c r="I25">
-        <v>0.1017167231707744</v>
+        <v>0.04369444919667825</v>
       </c>
       <c r="J25">
-        <v>0.1017167231707744</v>
+        <v>0.04369444919667825</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N25">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q25">
-        <v>38.83325376930668</v>
+        <v>35.90283641283733</v>
       </c>
       <c r="R25">
-        <v>349.4992839237601</v>
+        <v>323.125527715536</v>
       </c>
       <c r="S25">
-        <v>0.02664492869829036</v>
+        <v>0.01667319535246331</v>
       </c>
       <c r="T25">
-        <v>0.02664492869829037</v>
+        <v>0.01667319535246331</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.463856666666667</v>
+        <v>1.745112333333333</v>
       </c>
       <c r="H26">
-        <v>4.39157</v>
+        <v>5.235336999999999</v>
       </c>
       <c r="I26">
-        <v>0.4820002157798746</v>
+        <v>0.5141582303331668</v>
       </c>
       <c r="J26">
-        <v>0.4820002157798747</v>
+        <v>0.5141582303331669</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N26">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O26">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P26">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q26">
-        <v>2.56035996669</v>
+        <v>16.00747566535867</v>
       </c>
       <c r="R26">
-        <v>23.04323970021</v>
+        <v>144.067280988228</v>
       </c>
       <c r="S26">
-        <v>0.001756757472852632</v>
+        <v>0.007433835193391492</v>
       </c>
       <c r="T26">
-        <v>0.001756757472852632</v>
+        <v>0.007433835193391492</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.463856666666667</v>
+        <v>1.745112333333333</v>
       </c>
       <c r="H27">
-        <v>4.39157</v>
+        <v>5.235336999999999</v>
       </c>
       <c r="I27">
-        <v>0.4820002157798746</v>
+        <v>0.5141582303331668</v>
       </c>
       <c r="J27">
-        <v>0.4820002157798747</v>
+        <v>0.5141582303331669</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P27">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q27">
-        <v>209.3835483173556</v>
+        <v>249.6131082271578</v>
       </c>
       <c r="R27">
-        <v>1884.4519348562</v>
+        <v>2246.51797404442</v>
       </c>
       <c r="S27">
-        <v>0.1436657805872696</v>
+        <v>0.1159197582093784</v>
       </c>
       <c r="T27">
-        <v>0.1436657805872697</v>
+        <v>0.1159197582093784</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.463856666666667</v>
+        <v>1.745112333333333</v>
       </c>
       <c r="H28">
-        <v>4.39157</v>
+        <v>5.235336999999999</v>
       </c>
       <c r="I28">
-        <v>0.4820002157798746</v>
+        <v>0.5141582303331668</v>
       </c>
       <c r="J28">
-        <v>0.4820002157798747</v>
+        <v>0.5141582303331669</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N28">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q28">
-        <v>194.4072094116133</v>
+        <v>295.3370692920525</v>
       </c>
       <c r="R28">
-        <v>1749.66488470452</v>
+        <v>2658.033623628473</v>
       </c>
       <c r="S28">
-        <v>0.1333899617059702</v>
+        <v>0.1371538614528432</v>
       </c>
       <c r="T28">
-        <v>0.1333899617059702</v>
+        <v>0.1371538614528433</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.463856666666667</v>
+        <v>1.745112333333333</v>
       </c>
       <c r="H29">
-        <v>4.39157</v>
+        <v>5.235336999999999</v>
       </c>
       <c r="I29">
-        <v>0.4820002157798746</v>
+        <v>0.5141582303331668</v>
       </c>
       <c r="J29">
-        <v>0.4820002157798747</v>
+        <v>0.5141582303331669</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N29">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q29">
-        <v>33.67267721623111</v>
+        <v>28.18411505712655</v>
       </c>
       <c r="R29">
-        <v>303.05409494608</v>
+        <v>253.657035514139</v>
       </c>
       <c r="S29">
-        <v>0.02310406665475364</v>
+        <v>0.01308863875768185</v>
       </c>
       <c r="T29">
-        <v>0.02310406665475364</v>
+        <v>0.01308863875768185</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.463856666666667</v>
+        <v>1.745112333333333</v>
       </c>
       <c r="H30">
-        <v>4.39157</v>
+        <v>5.235336999999999</v>
       </c>
       <c r="I30">
-        <v>0.4820002157798746</v>
+        <v>0.5141582303331668</v>
       </c>
       <c r="J30">
-        <v>0.4820002157798747</v>
+        <v>0.5141582303331669</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N30">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q30">
-        <v>78.4429284309611</v>
+        <v>95.53555168323032</v>
       </c>
       <c r="R30">
-        <v>705.98635587865</v>
+        <v>859.819965149073</v>
       </c>
       <c r="S30">
-        <v>0.05382258842755142</v>
+        <v>0.04436649232956724</v>
       </c>
       <c r="T30">
-        <v>0.05382258842755143</v>
+        <v>0.04436649232956724</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.463856666666667</v>
+        <v>1.745112333333333</v>
       </c>
       <c r="H31">
-        <v>4.39157</v>
+        <v>5.235336999999999</v>
       </c>
       <c r="I31">
-        <v>0.4820002157798746</v>
+        <v>0.5141582303331668</v>
       </c>
       <c r="J31">
-        <v>0.4820002157798747</v>
+        <v>0.5141582303331669</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N31">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q31">
-        <v>184.0172993462934</v>
+        <v>422.4733157952012</v>
       </c>
       <c r="R31">
-        <v>1656.15569411664</v>
+        <v>3802.259842156811</v>
       </c>
       <c r="S31">
-        <v>0.126261060931477</v>
+        <v>0.1961956443903046</v>
       </c>
       <c r="T31">
-        <v>0.1262610609314771</v>
+        <v>0.1961956443903047</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.136227</v>
+        <v>0.1675116666666666</v>
       </c>
       <c r="H32">
-        <v>0.408681</v>
+        <v>0.502535</v>
       </c>
       <c r="I32">
-        <v>0.04485510425317938</v>
+        <v>0.04935355761825418</v>
       </c>
       <c r="J32">
-        <v>0.04485510425317938</v>
+        <v>0.04935355761825418</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N32">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O32">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P32">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q32">
-        <v>0.238267970577</v>
+        <v>1.536542305393333</v>
       </c>
       <c r="R32">
-        <v>2.144411735193</v>
+        <v>13.82888074854</v>
       </c>
       <c r="S32">
-        <v>0.0001634844487877653</v>
+        <v>0.000713566742486872</v>
       </c>
       <c r="T32">
-        <v>0.0001634844487877654</v>
+        <v>0.000713566742486872</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.136227</v>
+        <v>0.1675116666666666</v>
       </c>
       <c r="H33">
-        <v>0.408681</v>
+        <v>0.502535</v>
       </c>
       <c r="I33">
-        <v>0.04485510425317938</v>
+        <v>0.04935355761825418</v>
       </c>
       <c r="J33">
-        <v>0.04485510425317938</v>
+        <v>0.04935355761825418</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P33">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q33">
-        <v>19.48530432394001</v>
+        <v>23.96012393145556</v>
       </c>
       <c r="R33">
-        <v>175.36773891546</v>
+        <v>215.6411153831</v>
       </c>
       <c r="S33">
-        <v>0.01336958647503876</v>
+        <v>0.01112702691187787</v>
       </c>
       <c r="T33">
-        <v>0.01336958647503876</v>
+        <v>0.01112702691187787</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.136227</v>
+        <v>0.1675116666666666</v>
       </c>
       <c r="H34">
-        <v>0.408681</v>
+        <v>0.502535</v>
       </c>
       <c r="I34">
-        <v>0.04485510425317938</v>
+        <v>0.04935355761825418</v>
       </c>
       <c r="J34">
-        <v>0.04485510425317938</v>
+        <v>0.04935355761825418</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N34">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q34">
-        <v>18.091601124324</v>
+        <v>28.34912329744611</v>
       </c>
       <c r="R34">
-        <v>162.824410118916</v>
+        <v>255.142109677015</v>
       </c>
       <c r="S34">
-        <v>0.01241331526992798</v>
+        <v>0.01316526820817926</v>
       </c>
       <c r="T34">
-        <v>0.01241331526992798</v>
+        <v>0.01316526820817926</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.136227</v>
+        <v>0.1675116666666666</v>
       </c>
       <c r="H35">
-        <v>0.408681</v>
+        <v>0.502535</v>
       </c>
       <c r="I35">
-        <v>0.04485510425317938</v>
+        <v>0.04935355761825418</v>
       </c>
       <c r="J35">
-        <v>0.04485510425317938</v>
+        <v>0.04935355761825418</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N35">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q35">
-        <v>3.133590810896</v>
+        <v>2.705366294516111</v>
       </c>
       <c r="R35">
-        <v>28.202317298064</v>
+        <v>24.348296650645</v>
       </c>
       <c r="S35">
-        <v>0.002150072312300925</v>
+        <v>0.001256365937492017</v>
       </c>
       <c r="T35">
-        <v>0.002150072312300925</v>
+        <v>0.001256365937492017</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.136227</v>
+        <v>0.1675116666666666</v>
       </c>
       <c r="H36">
-        <v>0.408681</v>
+        <v>0.502535</v>
       </c>
       <c r="I36">
-        <v>0.04485510425317938</v>
+        <v>0.04935355761825418</v>
       </c>
       <c r="J36">
-        <v>0.04485510425317938</v>
+        <v>0.04935355761825418</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N36">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q36">
-        <v>7.299925638005001</v>
+        <v>9.170366390001666</v>
       </c>
       <c r="R36">
-        <v>65.69933074204501</v>
+        <v>82.533297510015</v>
       </c>
       <c r="S36">
-        <v>0.005008748411424648</v>
+        <v>0.004258697238179523</v>
       </c>
       <c r="T36">
-        <v>0.005008748411424649</v>
+        <v>0.004258697238179524</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.136227</v>
+        <v>0.1675116666666666</v>
       </c>
       <c r="H37">
-        <v>0.408681</v>
+        <v>0.502535</v>
       </c>
       <c r="I37">
-        <v>0.04485510425317938</v>
+        <v>0.04935355761825418</v>
       </c>
       <c r="J37">
-        <v>0.04485510425317938</v>
+        <v>0.04935355761825418</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N37">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q37">
-        <v>17.12471255476801</v>
+        <v>40.55281021128944</v>
       </c>
       <c r="R37">
-        <v>154.122412992912</v>
+        <v>364.975291901605</v>
       </c>
       <c r="S37">
-        <v>0.0117498973356993</v>
+        <v>0.01883263258003864</v>
       </c>
       <c r="T37">
-        <v>0.0117498973356993</v>
+        <v>0.01883263258003864</v>
       </c>
     </row>
   </sheetData>
